--- a/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/观看3D大地图.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/AVGScripts/后续引导AVG/观看3D大地图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="test_3Dmap" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>说明</t>
   </si>
@@ -177,57 +177,22 @@
     </r>
   </si>
   <si>
-    <t>{#涂凌开心动作恢复}{#涂凌待机表情}STS的职责，就是保护这座城市，不受异质物侵害。</t>
-  </si>
-  <si>
-    <t>{#涂凌待机2动作}{#涂凌忧伤表情}目前最危险的异质物事件，就是我们昨天见到的『巢』！</t>
-  </si>
-  <si>
-    <t>因为每个『巢』的特点和危险程度都不一样。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调查可以根据当前的势力逐步推进。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涂凌待机动作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>{#涂凌点赞动作}总之，只要能够找到巢主，击败它，『巢』化的区域就会恢复原状啦！</t>
-  </si>
-  <si>
-    <t>{#涂凌点赞动作恢复}本次监测到『巢化反应』的区域是【泉舜公寓】，赶紧出发吧。</t>
+    <t>{#涂凌开心动作恢复}{#涂凌待机表情}咱们STS的核心职责，
+就是保护这座城市，不受异质物侵害。</t>
+  </si>
+  <si>
+    <t>{#涂凌待机2动作}{#涂凌忧伤表情}其中最危险的异质物事件，
+就是我们昨天见到的&lt;z=highlight&gt;『巢』&lt;/z&gt;！</t>
+  </si>
+  <si>
+    <t>每个&lt;z=highlight&gt;『巢』&lt;/z&gt;的特点和危险程度都不一样,
+调查可以根据当前的实力逐步推进。{#涂凌待机动作}</t>
+  </si>
+  <si>
+    <t>{#涂凌点赞动作}总之，只要能够找到巢主并击败它，&lt;z=highlight&gt;『巢化』&lt;/z&gt;的区域就会恢复原状啦！</t>
+  </si>
+  <si>
+    <t>{#涂凌点赞动作恢复}本次监测到&lt;z=highlight&gt;『巢化』&lt;/z&gt;的区域是&lt;z=highlight&gt;『泉舜公寓』&lt;/z&gt;，赶紧出发吧。</t>
   </si>
   <si>
     <t>移除角色</t>
@@ -1678,7 +1643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1790,24 +1755,27 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1832,20 +1800,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2197,10 +2165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1"/>
@@ -2239,7 +2207,7 @@
       <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="51"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="114" customHeight="1" spans="1:10">
       <c r="A2" s="10" t="s">
@@ -2247,27 +2215,27 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="15" t="e">
-        <f ca="1">INDEX($D$5:$D$845,CELL("row")-4)</f>
-        <v>#VALUE!</v>
+      <c r="D2" s="15" t="str">
+        <f ca="1">INDEX($D$5:$D$844,CELL("row")-4)</f>
+        <v>角色台词</v>
       </c>
       <c r="E2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),2,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),2,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="F2" s="16" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),3,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),3,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="G2" s="17" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),4,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),4,),"")</f>
-        <v>#VALUE!</v>
+        <v>#REF!</v>
       </c>
       <c r="H2" s="17" t="e">
         <f ca="1">IF(VLOOKUP($D$2,INDIRECT(J2),5,)&lt;&gt;0,VLOOKUP($D$2,INDIRECT(J2),5,),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J2" s="51" t="s">
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2401,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="J8" s="52"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A9" s="28">
@@ -2481,7 +2449,7 @@
     </row>
     <row r="13" s="2" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A13" s="28">
-        <f t="shared" si="0"/>
+        <f>ROW()-6</f>
         <v>7</v>
       </c>
       <c r="B13" s="6"/>
@@ -2500,7 +2468,7 @@
     </row>
     <row r="14" s="2" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A14" s="28">
-        <f t="shared" si="0"/>
+        <f>ROW()-6</f>
         <v>8</v>
       </c>
       <c r="B14" s="6"/>
@@ -2511,69 +2479,65 @@
       <c r="E14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="39" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="7"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="45" customHeight="1" spans="1:10">
-      <c r="A15" s="28">
-        <f t="shared" si="0"/>
+    <row r="15" s="3" customFormat="1" ht="22" customHeight="1" spans="1:10">
+      <c r="A15" s="29">
+        <f>ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="39" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="22" customHeight="1" spans="1:10">
-      <c r="A16" s="29">
-        <f t="shared" si="0"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="31"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A16" s="28">
+        <f t="shared" ref="A16:A31" si="1">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="31"/>
-      <c r="J16" s="52"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A32" si="1">ROW()-6</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="7"/>
-      <c r="J17" s="53"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A18" s="28">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2586,13 +2550,17 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
+      <c r="D19" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="J19" s="9"/>
     </row>
@@ -2603,14 +2571,14 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>22</v>
+      <c r="D20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7"/>
       <c r="J20" s="9"/>
@@ -2623,13 +2591,13 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="28" t="s">
-        <v>26</v>
+      <c r="F21" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="7"/>
       <c r="J21" s="9"/>
@@ -2644,16 +2612,16 @@
       <c r="D22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="42" t="s">
+      <c r="E22" s="43" t="s">
         <v>39</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="G22" s="7"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="23" s="2" customFormat="1" ht="31" customHeight="1" spans="1:10">
       <c r="A23" s="28">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2663,16 +2631,16 @@
       <c r="D23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="38" t="s">
+      <c r="E23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="44" t="s">
         <v>41</v>
       </c>
       <c r="G23" s="7"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="31" customHeight="1" spans="1:10">
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A24" s="28">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2682,16 +2650,16 @@
       <c r="D24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="38" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="7"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="25" s="2" customFormat="1" ht="28" customHeight="1" spans="1:10">
       <c r="A25" s="28">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2701,50 +2669,50 @@
       <c r="D25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="45" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="7"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="28" customHeight="1" spans="1:10">
-      <c r="A26" s="28">
+    <row r="26" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A26" s="29">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="10" t="s">
-        <v>27</v>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A27" s="29">
+      <c r="F26" s="46"/>
+      <c r="G26" s="31"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A27" s="28">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="31"/>
-      <c r="J27" s="52"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A28" s="28">
@@ -2754,13 +2722,13 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>45</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>26</v>
       </c>
       <c r="G28" s="7"/>
       <c r="J28" s="9"/>
@@ -2773,13 +2741,13 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="43" t="s">
         <v>46</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="G29" s="7"/>
       <c r="J29" s="9"/>
@@ -2792,12 +2760,12 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="32" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="7"/>
@@ -2811,88 +2779,88 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>49</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="7"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A32" s="28">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A32:A47" si="2">ROW()-6</f>
         <v>26</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="33" customHeight="1" spans="1:1">
       <c r="A33" s="28">
-        <f t="shared" ref="A33:A48" si="2">ROW()-6</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:1">
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A34" s="28">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+      <c r="B34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="7"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A35" s="28">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="50"/>
+      <c r="D35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="36" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A36" s="28">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>22</v>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="J36" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="J36" s="56"/>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A37" s="28">
@@ -2902,16 +2870,16 @@
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="G37" s="10"/>
-      <c r="J37" s="54"/>
+      <c r="J37" s="56"/>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A38" s="28">
@@ -2923,14 +2891,14 @@
       <c r="D38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="42" t="s">
+      <c r="E38" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="48" t="s">
         <v>51</v>
       </c>
       <c r="G38" s="10"/>
-      <c r="J38" s="54"/>
+      <c r="J38" s="56"/>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A39" s="28">
@@ -2942,14 +2910,14 @@
       <c r="D39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="37" t="s">
-        <v>40</v>
+      <c r="E39" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>52</v>
       </c>
       <c r="G39" s="10"/>
-      <c r="J39" s="54"/>
+      <c r="J39" s="56"/>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A40" s="28">
@@ -2961,14 +2929,14 @@
       <c r="D40" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="46" t="s">
+      <c r="E40" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="47" t="s">
         <v>53</v>
       </c>
       <c r="G40" s="10"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="56"/>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A41" s="28">
@@ -2980,14 +2948,14 @@
       <c r="D41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="46" t="s">
+      <c r="E41" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="47" t="s">
         <v>54</v>
       </c>
       <c r="G41" s="10"/>
-      <c r="J41" s="54"/>
+      <c r="J41" s="56"/>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A42" s="28">
@@ -2999,14 +2967,14 @@
       <c r="D42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="46" t="s">
+      <c r="E42" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="47" t="s">
         <v>55</v>
       </c>
       <c r="G42" s="10"/>
-      <c r="J42" s="54"/>
+      <c r="J42" s="56"/>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A43" s="28">
@@ -3018,14 +2986,14 @@
       <c r="D43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="46" t="s">
+      <c r="E43" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="47" t="s">
         <v>56</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="J43" s="54"/>
+      <c r="J43" s="56"/>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A44" s="28">
@@ -3037,14 +3005,14 @@
       <c r="D44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="46" t="s">
+      <c r="E44" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="38" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="J44" s="54"/>
+      <c r="J44" s="56"/>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A45" s="28">
@@ -3056,14 +3024,14 @@
       <c r="D45" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="38" t="s">
+      <c r="E45" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="47" t="s">
         <v>58</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="J45" s="54"/>
+      <c r="J45" s="56"/>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A46" s="28">
@@ -3073,18 +3041,18 @@
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="43" t="s">
         <v>59</v>
       </c>
       <c r="G46" s="10"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="J46" s="56"/>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="29" customHeight="1" spans="1:10">
       <c r="A47" s="28">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -3092,82 +3060,82 @@
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="44" t="s">
         <v>60</v>
       </c>
       <c r="G47" s="10"/>
-      <c r="J47" s="54"/>
-    </row>
-    <row r="48" s="4" customFormat="1" ht="29" customHeight="1" spans="1:10">
+      <c r="J47" s="56"/>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A48" s="28">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A48:A68" si="3">ROW()-6</f>
         <v>42</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>61</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="28"/>
       <c r="G48" s="10"/>
-      <c r="J48" s="54"/>
+      <c r="J48" s="56"/>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:10">
       <c r="A49" s="28">
-        <f t="shared" ref="A49:A69" si="3">ROW()-6</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="28"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G49" s="10"/>
-      <c r="J49" s="54"/>
-    </row>
-    <row r="50" s="4" customFormat="1" customHeight="1" spans="1:10">
+      <c r="J49" s="56"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A50" s="28">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G50" s="10"/>
-      <c r="J50" s="54"/>
+      <c r="B50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="7"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A51" s="28">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="B51" s="6"/>
       <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="50"/>
+      <c r="D51" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="J51" s="9"/>
     </row>
@@ -3176,21 +3144,21 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>22</v>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="F52" s="28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G52" s="7"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="53" s="4" customFormat="1" ht="36" customHeight="1" spans="1:10">
       <c r="A53" s="28">
         <f t="shared" si="3"/>
         <v>47</v>
@@ -3198,18 +3166,18 @@
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" s="4" customFormat="1" ht="36" customHeight="1" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" s="10"/>
+      <c r="J53" s="56"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A54" s="28">
         <f t="shared" si="3"/>
         <v>48</v>
@@ -3217,16 +3185,16 @@
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="G54" s="10"/>
-      <c r="J54" s="54"/>
+      <c r="G54" s="7"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A55" s="28">
@@ -3236,13 +3204,13 @@
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E55" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="37" t="s">
-        <v>48</v>
+      <c r="F55" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="G55" s="7"/>
       <c r="J55" s="9"/>
@@ -3257,10 +3225,10 @@
       <c r="D56" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="46" t="s">
+      <c r="E56" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="47" t="s">
         <v>64</v>
       </c>
       <c r="G56" s="7"/>
@@ -3274,18 +3242,18 @@
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>65</v>
+        <v>24</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>26</v>
       </c>
       <c r="G57" s="7"/>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="58" s="2" customFormat="1" ht="33" customHeight="1" spans="1:10">
       <c r="A58" s="28">
         <f t="shared" si="3"/>
         <v>52</v>
@@ -3293,18 +3261,18 @@
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="G58" s="7"/>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="33" customHeight="1" spans="1:10">
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A59" s="28">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -3314,10 +3282,10 @@
       <c r="D59" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="43" t="s">
+      <c r="E59" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="47" t="s">
         <v>66</v>
       </c>
       <c r="G59" s="7"/>
@@ -3333,10 +3301,10 @@
       <c r="D60" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="46" t="s">
+      <c r="E60" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="47" t="s">
         <v>67</v>
       </c>
       <c r="G60" s="7"/>
@@ -3352,16 +3320,16 @@
       <c r="D61" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="46" t="s">
+      <c r="E61" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="38" t="s">
         <v>68</v>
       </c>
       <c r="G61" s="7"/>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:10">
+    <row r="62" s="2" customFormat="1" ht="37" customHeight="1" spans="1:10">
       <c r="A62" s="28">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -3371,91 +3339,87 @@
       <c r="D62" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F62" s="38" t="s">
+      <c r="E62" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="36" t="s">
         <v>69</v>
       </c>
       <c r="G62" s="7"/>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="37" customHeight="1" spans="1:10">
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A63" s="28">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="47" t="s">
         <v>70</v>
       </c>
       <c r="G63" s="7"/>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A64" s="28">
+    <row r="64" s="3" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A64" s="29">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="J64" s="9"/>
-    </row>
-    <row r="65" s="3" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A65" s="29">
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="40"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="31"/>
+      <c r="J64" s="54"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A65" s="28">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="31" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="40"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="31"/>
-      <c r="J65" s="52"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="J65" s="9"/>
     </row>
     <row r="66" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A66" s="28">
-        <f>ROW()-6</f>
+        <f t="shared" ref="A65:A71" si="4">ROW()-6</f>
         <v>60</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="7" t="s">
-        <v>36</v>
-      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
       <c r="E66" s="7"/>
-      <c r="F66" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="7"/>
       <c r="J66" s="9"/>
     </row>
     <row r="67" s="2" customFormat="1" customHeight="1" spans="1:10">
       <c r="A67" s="28">
-        <f t="shared" ref="A66:A72" si="4">ROW()-6</f>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="B67" s="6"/>
+      <c r="B67" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C67" s="6"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -3468,9 +3432,7 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -3496,7 +3458,7 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="B70" s="6"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="6"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -3509,26 +3471,13 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="B71" s="8"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="8"/>
       <c r="G71" s="7"/>
       <c r="J71" s="9"/>
-    </row>
-    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A72" s="28">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="7"/>
-      <c r="J72" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
